--- a/Arduino-Bluetooth/docs/tukey_only_p-value.xlsx
+++ b/Arduino-Bluetooth/docs/tukey_only_p-value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001547914660684713</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,11 +487,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -598,16 +598,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>0.5v</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.001659090554835818</v>
+        <v>0.001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -623,11 +623,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01408271440148068</v>
+        <v>0.001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>15v</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -718,40 +718,40 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>21v</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001</v>
+        <v>0.0700833684485298</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -763,15 +763,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001</v>
+        <v>0.08306881722744952</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21v</t>
+          <t>15v</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -818,12 +818,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -838,32 +838,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>21v</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001</v>
+        <v>0.5129628926384373</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -883,22 +883,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001</v>
+        <v>0.7653698729057734</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -907,18 +907,18 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -927,18 +927,18 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.001</v>
+        <v>0.8366112976143534</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -947,27 +947,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01203772246034485</v>
+        <v>0.001</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -978,38 +978,198 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>15v</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
       <c r="C28" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>18v</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>21v</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0.2271347020982002</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4402912847521626</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2881714444349286</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>True</t>
         </is>
